--- a/reports/subscriptions_report/templates/xlsx/template.xlsx
+++ b/reports/subscriptions_report/templates/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eklokova\code\my_connect_reports\reports\subscriptions_report\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503EAA0A-3758-416E-8DBF-965D9BB34BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EF024E-0487-457F-A81A-4F916BA40F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AB$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Asset Id</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>external reference id</t>
+  </si>
+  <si>
+    <t>Discount Group Consumables</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AI1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,19 +493,19 @@
     <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="23.140625" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,41 +555,44 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AB1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
